--- a/data/digital-archive.xlsx
+++ b/data/digital-archive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8279" uniqueCount="3281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="3305">
   <si>
     <t>Type</t>
   </si>
@@ -9918,6 +9918,78 @@
   </si>
   <si>
     <t>https://youtu.be/RewczFexBpo</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 오픈하우스 1편 한독약품(2025)</t>
+  </si>
+  <si>
+    <t>vdas2020ft507001.png</t>
+  </si>
+  <si>
+    <t>19DH2roZXqMFRSpBkJ1IoC1C2EMhVOc0F</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ul32lT_S6Co</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 오픈하우스 2편 GC녹십자(2025)</t>
+  </si>
+  <si>
+    <t>vdas2020ft508001.png</t>
+  </si>
+  <si>
+    <t>14F5hP0ETzFWLS1aV7zfe5oJMO9sqbOTH</t>
+  </si>
+  <si>
+    <t>https://youtu.be/srU8zNOuplI</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 오픈하우스 3편 종근당(2025)</t>
+  </si>
+  <si>
+    <t>vdas2020ft509001.png</t>
+  </si>
+  <si>
+    <t>17wDEKZo8hCzaTb9bJUg5KY0mvohaQWIT</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ChyNZg6z1n0</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 오픈하우스 4편 종근당(2025)</t>
+  </si>
+  <si>
+    <t>vdas2020ft510001.png</t>
+  </si>
+  <si>
+    <t>1_q5VcAK0hfXt2zWk1CVN-jvVLlZFaNzE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4orqGcfryt0</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 제1차 혁신포럼</t>
+  </si>
+  <si>
+    <t>vdas2020ft511001.png</t>
+  </si>
+  <si>
+    <t>1VJJdDXfvLrcWUq5T3prKSnBbD2cYfEMZ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Oeh92QmxHGo</t>
+  </si>
+  <si>
+    <t>한국제약바이오협회 제2차 혁신포럼</t>
+  </si>
+  <si>
+    <t>vdas2020ft512001.png</t>
+  </si>
+  <si>
+    <t>1fJf80nSunNF3BIdXGH7TrFZOEXELI9Wt</t>
+  </si>
+  <si>
+    <t>https://youtu.be/j33jGpAA2RA</t>
   </si>
 </sst>
 </file>
@@ -17503,11 +17575,11 @@
         <v>1047</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" ref="L3:L564" si="1">CONCATENATE($B3, $C3, $D3, $E3, $F3)</f>
+        <f t="shared" ref="L3:L570" si="1">CONCATENATE($B3, $C3, $D3, $E3, $F3)</f>
         <v>imid1980rd001</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M564" si="2">CONCATENATE($L3, $G3)</f>
+        <f t="shared" ref="M3:M570" si="2">CONCATENATE($L3, $G3)</f>
         <v>imid1980rd001001</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -45165,6 +45237,312 @@
       <c r="Q564" s="6"/>
       <c r="R564" s="12" t="s">
         <v>3280</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D565" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E565" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F565" s="7">
+        <v>507.0</v>
+      </c>
+      <c r="G565" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H565" s="7" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I565" s="7" t="s">
+        <v>3281</v>
+      </c>
+      <c r="J565" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K565" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L565" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft507</v>
+      </c>
+      <c r="M565" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft507001</v>
+      </c>
+      <c r="N565" s="7" t="s">
+        <v>3282</v>
+      </c>
+      <c r="O565" s="7" t="s">
+        <v>3283</v>
+      </c>
+      <c r="P565" s="6"/>
+      <c r="Q565" s="6"/>
+      <c r="R565" s="12" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D566" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E566" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F566" s="7">
+        <v>508.0</v>
+      </c>
+      <c r="G566" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H566" s="7" t="s">
+        <v>3285</v>
+      </c>
+      <c r="I566" s="7" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J566" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K566" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L566" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft508</v>
+      </c>
+      <c r="M566" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft508001</v>
+      </c>
+      <c r="N566" s="7" t="s">
+        <v>3286</v>
+      </c>
+      <c r="O566" s="7" t="s">
+        <v>3287</v>
+      </c>
+      <c r="P566" s="6"/>
+      <c r="Q566" s="6"/>
+      <c r="R566" s="12" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D567" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E567" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F567" s="7">
+        <v>509.0</v>
+      </c>
+      <c r="G567" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H567" s="7" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I567" s="7" t="s">
+        <v>3289</v>
+      </c>
+      <c r="J567" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K567" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L567" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft509</v>
+      </c>
+      <c r="M567" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft509001</v>
+      </c>
+      <c r="N567" s="7" t="s">
+        <v>3290</v>
+      </c>
+      <c r="O567" s="7" t="s">
+        <v>3291</v>
+      </c>
+      <c r="P567" s="6"/>
+      <c r="Q567" s="6"/>
+      <c r="R567" s="12" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D568" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E568" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F568" s="7">
+        <v>510.0</v>
+      </c>
+      <c r="G568" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H568" s="7" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I568" s="7" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J568" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K568" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L568" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft510</v>
+      </c>
+      <c r="M568" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft510001</v>
+      </c>
+      <c r="N568" s="7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="O568" s="7" t="s">
+        <v>3295</v>
+      </c>
+      <c r="P568" s="6"/>
+      <c r="Q568" s="6"/>
+      <c r="R568" s="12" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D569" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E569" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F569" s="7">
+        <v>511.0</v>
+      </c>
+      <c r="G569" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H569" s="7" t="s">
+        <v>3297</v>
+      </c>
+      <c r="I569" s="7" t="s">
+        <v>3297</v>
+      </c>
+      <c r="J569" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K569" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L569" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft511</v>
+      </c>
+      <c r="M569" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft511001</v>
+      </c>
+      <c r="N569" s="7" t="s">
+        <v>3298</v>
+      </c>
+      <c r="O569" s="7" t="s">
+        <v>3299</v>
+      </c>
+      <c r="P569" s="6"/>
+      <c r="Q569" s="6"/>
+      <c r="R569" s="12" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D570" s="7">
+        <v>2020.0</v>
+      </c>
+      <c r="E570" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F570" s="7">
+        <v>512.0</v>
+      </c>
+      <c r="G570" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H570" s="7" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I570" s="7" t="s">
+        <v>3301</v>
+      </c>
+      <c r="J570" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K570" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="L570" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>vdas2020ft512</v>
+      </c>
+      <c r="M570" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>vdas2020ft512001</v>
+      </c>
+      <c r="N570" s="7" t="s">
+        <v>3302</v>
+      </c>
+      <c r="O570" s="7" t="s">
+        <v>3303</v>
+      </c>
+      <c r="P570" s="6"/>
+      <c r="Q570" s="6"/>
+      <c r="R570" s="12" t="s">
+        <v>3304</v>
       </c>
     </row>
   </sheetData>
@@ -45216,7 +45594,13 @@
     <hyperlink r:id="rId45" ref="R562"/>
     <hyperlink r:id="rId46" ref="R563"/>
     <hyperlink r:id="rId47" ref="R564"/>
+    <hyperlink r:id="rId48" ref="R565"/>
+    <hyperlink r:id="rId49" ref="R566"/>
+    <hyperlink r:id="rId50" ref="R567"/>
+    <hyperlink r:id="rId51" ref="R568"/>
+    <hyperlink r:id="rId52" ref="R569"/>
+    <hyperlink r:id="rId53" ref="R570"/>
   </hyperlinks>
-  <drawing r:id="rId48"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>